--- a/results/comparison_PlainLLM/PlainLLM_costs.xlsx
+++ b/results/comparison_PlainLLM/PlainLLM_costs.xlsx
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.63414907455444</v>
+        <v>8.855396270751953</v>
       </c>
       <c r="B2" t="n">
-        <v>1650.9453125</v>
+        <v>1672.40625</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>16.63414549827576</v>
+        <v>8.855393171310425</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.471190214157104</v>
+        <v>5.011311292648315</v>
       </c>
       <c r="B3" t="n">
-        <v>1650.9453125</v>
+        <v>1672.40625</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.471187829971313</v>
+        <v>5.011308908462524</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.678800821304321</v>
+        <v>2.302706718444824</v>
       </c>
       <c r="B4" t="n">
-        <v>1650.9453125</v>
+        <v>1672.40625</v>
       </c>
       <c r="C4" t="n">
         <v>9.1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.67879843711853</v>
+        <v>2.302704334259033</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.474676370620728</v>
+        <v>3.126153707504272</v>
       </c>
       <c r="B5" t="n">
-        <v>1650.9453125</v>
+        <v>1672.40625</v>
       </c>
       <c r="C5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.474674224853516</v>
+        <v>3.126152038574219</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.08678674697876</v>
+        <v>1.648696422576904</v>
       </c>
       <c r="B6" t="n">
-        <v>1650.94921875</v>
+        <v>1672.41015625</v>
       </c>
       <c r="C6" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.086784362792969</v>
+        <v>1.648694753646851</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25.75671339035034</v>
+        <v>12.81988739967346</v>
       </c>
       <c r="B7" t="n">
-        <v>1650.94921875</v>
+        <v>1672.41796875</v>
       </c>
       <c r="C7" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.75671076774597</v>
+        <v>12.81988501548767</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.194051742553711</v>
+        <v>7.84099268913269</v>
       </c>
       <c r="B8" t="n">
-        <v>1650.94921875</v>
+        <v>1672.421875</v>
       </c>
       <c r="C8" t="n">
         <v>11.4</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7.194050073623657</v>
+        <v>7.840984344482422</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.612873792648315</v>
+        <v>3.893182754516602</v>
       </c>
       <c r="B9" t="n">
-        <v>1650.94921875</v>
+        <v>1672.421875</v>
       </c>
       <c r="C9" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.612872123718262</v>
+        <v>3.893181324005127</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.695505380630493</v>
+        <v>6.130452156066895</v>
       </c>
       <c r="B10" t="n">
-        <v>1650.94921875</v>
+        <v>1672.42578125</v>
       </c>
       <c r="C10" t="n">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.69550347328186</v>
+        <v>6.130450248718262</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -711,13 +711,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.22223687171936</v>
+        <v>3.853390455245972</v>
       </c>
       <c r="B11" t="n">
-        <v>1650.953125</v>
+        <v>1672.42578125</v>
       </c>
       <c r="C11" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.222235202789307</v>
+        <v>3.853388071060181</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.255620718002319</v>
+        <v>6.422328472137451</v>
       </c>
       <c r="B12" t="n">
-        <v>1650.953125</v>
+        <v>1672.4296875</v>
       </c>
       <c r="C12" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.255618572235107</v>
+        <v>6.42232608795166</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.10957932472229</v>
+        <v>4.17891788482666</v>
       </c>
       <c r="B13" t="n">
-        <v>1650.953125</v>
+        <v>1672.43359375</v>
       </c>
       <c r="C13" t="n">
         <v>9</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.109577655792236</v>
+        <v>4.178915977478027</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.667169094085693</v>
+        <v>25.68674540519714</v>
       </c>
       <c r="B14" t="n">
-        <v>1650.953125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.667167186737061</v>
+        <v>25.68674325942993</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.779626846313477</v>
+        <v>5.34270977973938</v>
       </c>
       <c r="B15" t="n">
-        <v>1650.953125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C15" t="n">
-        <v>9.4</v>
+        <v>12.3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.779624700546265</v>
+        <v>5.342707872390747</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -841,13 +841,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.799501895904541</v>
+        <v>12.94188952445984</v>
       </c>
       <c r="B16" t="n">
-        <v>1650.95703125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.799499988555908</v>
+        <v>12.94188809394836</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.611897706985474</v>
+        <v>5.915784358978271</v>
       </c>
       <c r="B17" t="n">
-        <v>1650.95703125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.611895799636841</v>
+        <v>5.915779590606689</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.89125657081604</v>
+        <v>3.849710941314697</v>
       </c>
       <c r="B18" t="n">
-        <v>1650.95703125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C18" t="n">
-        <v>10.6</v>
+        <v>13.5</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8.891255140304565</v>
+        <v>3.849709272384644</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14.67018294334412</v>
+        <v>6.903470516204834</v>
       </c>
       <c r="B19" t="n">
-        <v>1650.95703125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C19" t="n">
-        <v>10.4</v>
+        <v>9.1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.6701807975769</v>
+        <v>6.903469085693359</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12.3390371799469</v>
+        <v>4.492250680923462</v>
       </c>
       <c r="B20" t="n">
-        <v>1650.95703125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C20" t="n">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12.33903527259827</v>
+        <v>4.49224853515625</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.135927677154541</v>
+        <v>4.393612384796143</v>
       </c>
       <c r="B21" t="n">
-        <v>1650.95703125</v>
+        <v>1672.4375</v>
       </c>
       <c r="C21" t="n">
-        <v>10.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>5.135926008224487</v>
+        <v>4.393610715866089</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.019987106323242</v>
+        <v>23.75310635566711</v>
       </c>
       <c r="B22" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C22" t="n">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.019985675811768</v>
+        <v>23.7531042098999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.388027429580688</v>
+        <v>8.654507637023926</v>
       </c>
       <c r="B23" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C23" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.388025999069214</v>
+        <v>8.654505252838135</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.784735679626465</v>
+        <v>4.132864236831665</v>
       </c>
       <c r="B24" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C24" t="n">
-        <v>10.9</v>
+        <v>9.1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>4.784733295440674</v>
+        <v>4.13286280632019</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.04432225227356</v>
+        <v>2.785496711730957</v>
       </c>
       <c r="B25" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C25" t="n">
-        <v>13.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.044320106506348</v>
+        <v>2.785467386245728</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.305448770523071</v>
+        <v>2.088915348052979</v>
       </c>
       <c r="B26" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C26" t="n">
-        <v>9.1</v>
+        <v>14.8</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.305447340011597</v>
+        <v>2.088912963867188</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.336620569229126</v>
+        <v>1.917295455932617</v>
       </c>
       <c r="B27" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C27" t="n">
-        <v>9.199999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.336619138717651</v>
+        <v>1.917293310165405</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.095317602157593</v>
+        <v>2.476662635803223</v>
       </c>
       <c r="B28" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C28" t="n">
         <v>9.199999999999999</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.095315456390381</v>
+        <v>2.476660966873169</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.296663761138916</v>
+        <v>2.876961946487427</v>
       </c>
       <c r="B29" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C29" t="n">
-        <v>10.2</v>
+        <v>9.1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.296662092208862</v>
+        <v>2.876960277557373</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1205,13 +1205,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.230998039245605</v>
+        <v>2.38836145401001</v>
       </c>
       <c r="B30" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C30" t="n">
-        <v>15.1</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.230996370315552</v>
+        <v>2.388359785079956</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.137533187866211</v>
+        <v>3.074860095977783</v>
       </c>
       <c r="B31" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>14.9</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4.137531042098999</v>
+        <v>3.074857950210571</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.899491548538208</v>
+        <v>4.769952297210693</v>
       </c>
       <c r="B32" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.899489402770996</v>
+        <v>4.769950389862061</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18.97050857543945</v>
+        <v>14.21580243110657</v>
       </c>
       <c r="B33" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C33" t="n">
-        <v>10.7</v>
+        <v>10.2</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>18.97050666809082</v>
+        <v>14.21580028533936</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.083653688430786</v>
+        <v>6.366029739379883</v>
       </c>
       <c r="B34" t="n">
-        <v>1650.95703125</v>
+        <v>1672.44140625</v>
       </c>
       <c r="C34" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.083651781082153</v>
+        <v>6.366028070449829</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.541573047637939</v>
+        <v>6.240421533584595</v>
       </c>
       <c r="B35" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C35" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.541570901870728</v>
+        <v>6.240419387817383</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.98832106590271</v>
+        <v>6.379691362380981</v>
       </c>
       <c r="B36" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C36" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.988312959671021</v>
+        <v>6.379689455032349</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.224582195281982</v>
+        <v>7.835207939147949</v>
       </c>
       <c r="B37" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C37" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.224580526351929</v>
+        <v>7.835205793380737</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.268563985824585</v>
+        <v>11.71624326705933</v>
       </c>
       <c r="B38" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C38" t="n">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.268562316894531</v>
+        <v>11.71624064445496</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.772060394287109</v>
+        <v>2.521648406982422</v>
       </c>
       <c r="B39" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>7.772058725357056</v>
+        <v>2.521646022796631</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.580695152282715</v>
+        <v>1.682973384857178</v>
       </c>
       <c r="B40" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C40" t="n">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.580693483352661</v>
+        <v>1.682971477508545</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.863726377487183</v>
+        <v>1.46711277961731</v>
       </c>
       <c r="B41" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C41" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.863724946975708</v>
+        <v>1.467111110687256</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.930039644241333</v>
+        <v>1.970839977264404</v>
       </c>
       <c r="B42" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C42" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.930037975311279</v>
+        <v>1.970838069915771</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20.72623157501221</v>
+        <v>18.88704633712769</v>
       </c>
       <c r="B43" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C43" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.726229429245</v>
+        <v>18.88704466819763</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.1044487953186</v>
+        <v>2.385014057159424</v>
       </c>
       <c r="B44" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C44" t="n">
-        <v>10.2</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>13.10444736480713</v>
+        <v>2.38501238822937</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.4964382648468</v>
+        <v>8.732091426849365</v>
       </c>
       <c r="B45" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C45" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10.49643588066101</v>
+        <v>8.732089042663574</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.977238655090332</v>
+        <v>11.24359583854675</v>
       </c>
       <c r="B46" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C46" t="n">
-        <v>12.3</v>
+        <v>10.5</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.977236747741699</v>
+        <v>11.24359393119812</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21.18391299247742</v>
+        <v>9.878616571426392</v>
       </c>
       <c r="B47" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C47" t="n">
-        <v>9.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>21.18391084671021</v>
+        <v>9.87861442565918</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.845790386199951</v>
+        <v>3.67302942276001</v>
       </c>
       <c r="B48" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C48" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>6.84578800201416</v>
+        <v>3.673027992248535</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.868929386138916</v>
+        <v>2.995138168334961</v>
       </c>
       <c r="B49" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C49" t="n">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>5.868927478790283</v>
+        <v>2.995136022567749</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.677178621292114</v>
+        <v>3.552798986434937</v>
       </c>
       <c r="B50" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C50" t="n">
-        <v>12.7</v>
+        <v>9.1</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2.677176237106323</v>
+        <v>3.552797079086304</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.171589851379395</v>
+        <v>8.160933017730713</v>
       </c>
       <c r="B51" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C51" t="n">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>9.171586751937866</v>
+        <v>8.160930395126343</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>21.65541100502014</v>
+        <v>18.64117527008057</v>
       </c>
       <c r="B52" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C52" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>21.65540933609009</v>
+        <v>18.64117336273193</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.74315595626831</v>
+        <v>26.19631767272949</v>
       </c>
       <c r="B53" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C53" t="n">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>27.74315404891968</v>
+        <v>26.19631552696228</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17.83568167686462</v>
+        <v>7.063528537750244</v>
       </c>
       <c r="B54" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C54" t="n">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>17.83567953109741</v>
+        <v>7.063526630401611</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10.71643924713135</v>
+        <v>9.085785865783691</v>
       </c>
       <c r="B55" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C55" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>10.71643757820129</v>
+        <v>9.085783958435059</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.850552558898926</v>
+        <v>4.923333883285522</v>
       </c>
       <c r="B56" t="n">
-        <v>1650.9609375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>5.850550174713135</v>
+        <v>4.92333197593689</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8.003781318664551</v>
+        <v>8.453414916992188</v>
       </c>
       <c r="B57" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C57" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>8.003779649734497</v>
+        <v>8.453413248062134</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>13.27105188369751</v>
+        <v>12.36901664733887</v>
       </c>
       <c r="B58" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C58" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>13.27104997634888</v>
+        <v>12.36901450157166</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18.21353697776794</v>
+        <v>19.88995027542114</v>
       </c>
       <c r="B59" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C59" t="n">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>18.21353459358215</v>
+        <v>19.88994765281677</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.189396142959595</v>
+        <v>3.462265253067017</v>
       </c>
       <c r="B60" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>3.189394235610962</v>
+        <v>3.462263107299805</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.327684164047241</v>
+        <v>10.0564079284668</v>
       </c>
       <c r="B61" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C61" t="n">
-        <v>10.8</v>
+        <v>10.2</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>9.32768177986145</v>
+        <v>10.05640602111816</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.977377414703369</v>
+        <v>5.061536550521851</v>
       </c>
       <c r="B62" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C62" t="n">
-        <v>9.1</v>
+        <v>12.2</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.977375745773315</v>
+        <v>5.061534404754639</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.406481027603149</v>
+        <v>6.190999031066895</v>
       </c>
       <c r="B63" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>4.406479835510254</v>
+        <v>6.190996885299683</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.117139339447021</v>
+        <v>8.938760995864868</v>
       </c>
       <c r="B64" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C64" t="n">
-        <v>9.199999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>3.117137670516968</v>
+        <v>8.938759565353394</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.076308250427246</v>
+        <v>3.25466251373291</v>
       </c>
       <c r="B65" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C65" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>4.076306343078613</v>
+        <v>3.254660606384277</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.223290920257568</v>
+        <v>8.204777240753174</v>
       </c>
       <c r="B66" t="n">
-        <v>1650.96484375</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>3.223288774490356</v>
+        <v>8.20477557182312</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.126720666885376</v>
+        <v>4.210114002227783</v>
       </c>
       <c r="B67" t="n">
-        <v>1650.96875</v>
+        <v>1672.4453125</v>
       </c>
       <c r="C67" t="n">
-        <v>11.6</v>
+        <v>9.1</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>5.126718759536743</v>
+        <v>4.210111618041992</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16.45700716972351</v>
+        <v>18.31426429748535</v>
       </c>
       <c r="B68" t="n">
-        <v>1651</v>
+        <v>1672.4609375</v>
       </c>
       <c r="C68" t="n">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>16.45700526237488</v>
+        <v>18.31426191329956</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
